--- a/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
+++ b/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,22 +67,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：{"nickName":"1";"answer":"3";"userID":"1"
-;"expression1":"1";"expression2":"1";"expression3":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>接口返回值：{"code:1","msg":"校验登录成功","third_session":"111","userStatus":"unRegister" }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 1
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,18 +135,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/ttzy/wx/user/getUsersByRole.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"code":"11111";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rolekey;admin/管理员,checker/审核人员，writer/录入人员，common/一般员工，visitor/游客
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"nickName":"1";"iv":"3";"encryptedData":"1"
+"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/user/queryUsers.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "data": [
+        {
+            "uid": 10,
+            "nickName": "龚明辉",
+            "roles": [
+                {
+                    "remark": "",
+                    "roleKey": "admin",
+                    "roleName": "管理员",
+                    "roleType": 0
+                },
+                {
+                    "remark": "",
+                    "roleKey": "writer",
+                    "roleName": "录入人员",
+                    "roleType": 0
+                }
+            ],
+            "createTime": "20180927 23:34:29",
+            "userStatus": "已审核"
+        },
+        {
+            "uid": 11,
+            "nickName": "薛丽飞",
+            "roles": [
+                {
+                    "remark": "",
+                    "roleKey": "writer",
+                    "roleName": "录入人员",
+                    "roleType": 0
+                }
+            ],
+            "createTime": "20180927 23:34:29",
+            "userStatus": "被拒绝"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "remark": "张三于20180831 20:57:40注册成功"
+        },
+        {
+            "remark": "张三于20180831 20:58:51注册成功"
+        },
+        {
+            "remark": "张三于20180831 21:00:14注册成功"
+        },
+        {
+            "remark": "薛利飞于20180927 23:34:29注册成功"
+        }
+    ],
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询log日志列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>查询角色下所有人员信息</t>
-  </si>
-  <si>
-    <t>/ttzy/wx/user/getUsersByRole.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口参数：{"code":"11111";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/log/query.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/user/changeUserStatus.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口参数：{"roleKey":"admin";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询除超管所有人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"uid":"uid"，"nickName":"1";"status":"3";"refuse":"拒绝原因"
+"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,12 +276,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">rolekey;admin/管理员,checker/审核人员，writer/录入人员，common/一般员工，visitor/游客
-</t>
+    <t>查询不在该角色下所有人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/user/getUnUsersByRole.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1,
+    "data": [
+        {
+            "nickName": "薛利飞",
+            "uid": 11
+        }
+    ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +400,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -603,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,16 +774,16 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -668,93 +801,154 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
@@ -762,38 +956,38 @@
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+    </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="6"/>
-    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-    </row>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" s="2"/>
     </row>
@@ -811,11 +1005,23 @@
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
+++ b/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,40 @@
         }
     ]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限批量新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限批量删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/role/batchdelUserRole.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/role/batchAddUserRole.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：[{"uid":"15","roleKey":"11"},{"uid":"16","roleKey":"11"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,36 +959,68 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
@@ -968,32 +1034,32 @@
     <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+    </row>
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="6"/>
-    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-    </row>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
     </row>
@@ -1017,11 +1083,17 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
+++ b/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,11 +149,6 @@
   <si>
     <t xml:space="preserve">rolekey;admin/管理员,checker/审核人员，writer/录入人员，common/一般员工，visitor/游客
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口参数：{"nickName":"1";"iv":"3";"encryptedData":"1"
-"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -251,16 +246,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：{"roleKey":"admin";}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询除超管所有人员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口参数：{"uid":"uid"，"nickName":"1";"status":"3";"refuse":"拒绝原因"
-"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：{"roleKey":"admin";}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "code": 1,
     "data": [
@@ -332,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：[{"uid":"15","roleKey":"11"},{"uid":"16","roleKey":"11"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "code": 1
 }</t>
@@ -347,6 +325,39 @@
   </si>
   <si>
     <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"uid":"uid"，"nickName":"1";"status":"3";"refuse":"拒绝原因"
+"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"status":0/待审核 1/已审核 2/被拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"pageSize":"每页条数"，"pageNumber":"页码"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"nickName":"1","gender":"1","phone":"1","reason":"1","iv":"3";"encryptedData":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender 0/女 1/男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin","uids":"11,22,33"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,17 +846,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -867,14 +880,14 @@
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>27</v>
@@ -885,16 +898,16 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
@@ -906,93 +919,97 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>

--- a/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
+++ b/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,54 @@
   </si>
   <si>
     <t>接口参数：{"roleKey":"admin","uids":"11,22,33"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/log/queryReport.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin","uids":"11,22,33"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"uid":"1","pageSize":"每页条数"，"pageNumber":"页码"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "report": "111",
+            "date": "2018-12-18"
+        }
+    ],
+    "code": 1
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -435,6 +483,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -445,7 +508,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,17 +530,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,247 +886,267 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-    </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+    </row>
     <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1065,21 +1154,19 @@
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
-    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="2"/>
     </row>
@@ -1106,11 +1193,14 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
+++ b/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,11 +149,6 @@
   <si>
     <t xml:space="preserve">rolekey;admin/管理员,checker/审核人员，writer/录入人员，common/一般员工，visitor/游客
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口参数：{"nickName":"1";"iv":"3";"encryptedData":"1"
-"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -251,16 +246,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：{"roleKey":"admin";}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询除超管所有人员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口参数：{"uid":"uid"，"nickName":"1";"status":"3";"refuse":"拒绝原因"
-"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：{"roleKey":"admin";}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "code": 1,
     "data": [
@@ -332,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：[{"uid":"15","roleKey":"11"},{"uid":"16","roleKey":"11"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "code": 1
 }</t>
@@ -347,6 +325,109 @@
   </si>
   <si>
     <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"uid":"uid"，"nickName":"1";"status":"3";"refuse":"拒绝原因"
+"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"status":0/待审核 1/已审核 2/被拒绝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"pageSize":"每页条数"，"pageNumber":"页码"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"nickName":"1","gender":"1","phone":"1","reason":"1","iv":"3";"encryptedData":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender 0/女 1/男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin";}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin","uids":"11,22,33"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/log/queryReport.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"roleKey":"admin","uids":"11,22,33"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"uid":"1","pageSize":"每页条数"，"pageNumber":"页码"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "data": [
+        {
+            "report": "111",
+            "date": "2018-12-18"
+        }
+    ],
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ttzy/wx/user/clear.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"uid":"uid"，"name":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -424,6 +505,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -434,7 +530,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,17 +552,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -806,266 +908,306 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-    </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="7"/>
+    </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="6"/>
-    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
-    </row>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
     </row>
@@ -1089,11 +1231,17 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
+++ b/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>接口描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,10 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：{"nickName":"1","gender":"1","phone":"1","reason":"1","iv":"3";"encryptedData":"1"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gender 0/女 1/男</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +402,23 @@
     ],
     "code": 1
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"name":"1","gender":"1","phone":"1","reason":"1","iv":"3";"encryptedData":"1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员修改接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/ttzy/wx/user/update.do
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数：{"name":"1","gender":"1","phone":"1","reason":"1""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +468,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +527,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +565,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" activeCellId="1" sqref="C9 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>41</v>
@@ -924,213 +946,233 @@
         <v>11</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" s="13" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
@@ -1147,7 +1189,9 @@
     <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="7"/>
+    </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -1155,21 +1199,19 @@
     <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
-    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B34" s="2"/>
     </row>
@@ -1196,11 +1238,14 @@
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>

--- a/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
+++ b/01 Design/03 架构设计/天天资源接口文档 (自动保存的).xlsx
@@ -418,7 +418,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>接口参数：{"name":"1","gender":"1","phone":"1","reason":"1""}</t>
+    <t>接口参数：{"uid":"1","name":"1","gender":"1","phone":"1","reason":"1""}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="C9 C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
